--- a/src/P07_af_all/T06_ml_auto_optuna_center/S02_combine_study.xlsx
+++ b/src/P07_af_all/T06_ml_auto_optuna_center/S02_combine_study.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 86, 'learning_rate': 0.030199846426600088, 'max_depth': 7, 'min_samples_split': 35, 'min_samples_leaf': 4, 'subsample': 0.959625878842969, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.01909226173477485</v>
+        <v>-0.4939643526324446</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9653795999228364</v>
+        <v>0.5081758509079205</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02560111630176039</v>
+        <v>0.07366948214164722</v>
       </c>
       <c r="L2" t="n">
-        <v>1.020323354806245</v>
+        <v>1.523235940604162</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02078394609819312</v>
+        <v>0.464622818639274</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02598888006645343</v>
+        <v>0.4939643526324446</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005804032027059224</v>
+        <v>0.02540044564009075</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 86, 'learning_rate': 0.030199846426600088, 'max_depth': 7, 'min_samples_split': 35, 'min_samples_leaf': 4, 'subsample': 0.959625878842969, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 50, 'learning_rate': 0.08757876807720011, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 39, 'subsample': 0.8308173616905851, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.03247305978613638</v>
+        <v>-0.3875853202193662</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9797733924137578</v>
+        <v>0.6022709977001474</v>
       </c>
       <c r="K3" t="n">
-        <v>0.100767265811037</v>
+        <v>0.09863252219499681</v>
       </c>
       <c r="L3" t="n">
-        <v>1.138804853971366</v>
+        <v>1.996187725608667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09731722242050896</v>
+        <v>0.1407732099463513</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0147002385026443</v>
+        <v>0.3875853202193662</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03335920599820338</v>
+        <v>0.0474793484860021</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 50, 'learning_rate': 0.08757876807720011, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 39, 'subsample': 0.8308173616905851, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 68, 'learning_rate': 0.0806030352667165, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 22, 'subsample': 0.7670163466007812, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.02507367766993211</v>
+        <v>-0.3819365245221545</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9764960458011647</v>
+        <v>0.6004379819822994</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1270828831449132</v>
+        <v>0.1028095701627225</v>
       </c>
       <c r="L4" t="n">
-        <v>1.082339080852687</v>
+        <v>1.597870673419334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06535946255800296</v>
+        <v>0.2837138896953019</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01201089396058602</v>
+        <v>0.3819365245221545</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02219794711761534</v>
+        <v>0.0833613291485573</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 68, 'learning_rate': 0.0806030352667165, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 22, 'subsample': 0.7670163466007812, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 147, 'learning_rate': 0.013214993175128866, 'max_depth': 6, 'min_samples_split': 8, 'min_samples_leaf': 21, 'subsample': 0.8103043755487271, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.02842513633834039</v>
+        <v>-0.4203703595477316</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9647939944808144</v>
+        <v>0.5753466751204978</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05997894345225291</v>
+        <v>0.08728866109939493</v>
       </c>
       <c r="L5" t="n">
-        <v>1.112144302557401</v>
+        <v>1.321063355542614</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1239312221811395</v>
+        <v>0.1462539553262033</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03367549321812196</v>
+        <v>0.4203703595477316</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004498756093868654</v>
+        <v>0.05407552002068812</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 147, 'learning_rate': 0.013214993175128866, 'max_depth': 6, 'min_samples_split': 8, 'min_samples_leaf': 21, 'subsample': 0.8103043755487271, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 126, 'learning_rate': 0.03978883004389167, 'max_depth': 5, 'min_samples_split': 32, 'min_samples_leaf': 28, 'subsample': 0.679394149181425, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.04909345243244338</v>
+        <v>-0.4013613474261404</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>0.952738688242265</v>
+        <v>0.594419755622062</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03251382133521241</v>
+        <v>0.02640869870013782</v>
       </c>
       <c r="L6" t="n">
-        <v>2.667800105707752</v>
+        <v>1.544095469284238</v>
       </c>
       <c r="M6" t="n">
-        <v>1.699926622481961</v>
+        <v>0.1046757668005143</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04486814137560647</v>
+        <v>0.4013613474261404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003208377169560361</v>
+        <v>0.05845385997116885</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 126, 'learning_rate': 0.03978883004389167, 'max_depth': 5, 'min_samples_split': 32, 'min_samples_leaf': 28, 'subsample': 0.679394149181425, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 58, 'max_depth': 14, 'min_samples_split': 16, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 54, 'max_depth': 51, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.2288179714737337</v>
+        <v>-0.500411731361186</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7772809728653062</v>
+        <v>0.5020203036473746</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02631249278161476</v>
+        <v>0.07635333432501794</v>
       </c>
       <c r="L7" t="n">
-        <v>1.607260584655257</v>
+        <v>1.429024613806958</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1977026949225905</v>
+        <v>0.3821150414559057</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2168499881632495</v>
+        <v>0.500411731361186</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008492710613302853</v>
+        <v>0.02838537596024571</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 58, 'max_depth': 14, 'min_samples_split': 16, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 54, 'max_depth': 51, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 54, 'max_depth': 10, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 62, 'max_depth': 14, 'min_samples_split': 27, 'min_samples_leaf': 10, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.1442505831758087</v>
+        <v>-0.3945317084500783</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8081564879887412</v>
+        <v>0.5911792251196999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1018914595316513</v>
+        <v>0.06913849993328608</v>
       </c>
       <c r="L8" t="n">
-        <v>1.695173993190572</v>
+        <v>2.125498831819181</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2752786190046547</v>
+        <v>0.2399017483311659</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1896740670091334</v>
+        <v>0.3945317084500783</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04004962018837507</v>
+        <v>0.04634850742556162</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 54, 'max_depth': 10, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 62, 'max_depth': 14, 'min_samples_split': 27, 'min_samples_leaf': 10, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 68, 'max_depth': 6, 'min_samples_split': 14, 'min_samples_leaf': 21, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 52, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.2088603080163299</v>
+        <v>-0.3917136457511836</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8139337158364047</v>
+        <v>0.5971065077323318</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07904417925394715</v>
+        <v>0.1329250948146542</v>
       </c>
       <c r="L9" t="n">
-        <v>1.586638314288053</v>
+        <v>1.526465878932818</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1655073063999576</v>
+        <v>0.1610203709048917</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1712661884103697</v>
+        <v>0.3917136457511836</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02736475136213963</v>
+        <v>0.07339691340410084</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 68, 'max_depth': 6, 'min_samples_split': 14, 'min_samples_leaf': 21, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 52, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 3, 'min_samples_split': 20, 'min_samples_leaf': 14, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 51, 'max_depth': 128, 'min_samples_split': 33, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.1847420102556756</v>
+        <v>-0.4240462872691634</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8271935999326779</v>
+        <v>0.5690364712555849</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04208775802118465</v>
+        <v>0.08916677398578182</v>
       </c>
       <c r="L10" t="n">
-        <v>1.784035809561486</v>
+        <v>1.363914324128249</v>
       </c>
       <c r="M10" t="n">
-        <v>0.424624869324533</v>
+        <v>0.2008173090558338</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1687040332549379</v>
+        <v>0.4240462872691634</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01702498683777679</v>
+        <v>0.0855763692057547</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 3, 'min_samples_split': 20, 'min_samples_leaf': 14, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 51, 'max_depth': 128, 'min_samples_split': 33, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_18-03</t>
+          <t>2026-01-26_20-35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 72, 'max_depth': 18, 'min_samples_split': 21, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.2579844028959319</v>
+        <v>-0.4192818259704944</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7727965772410165</v>
+        <v>0.5764381569084712</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03626028829678244</v>
+        <v>0.03844931115234055</v>
       </c>
       <c r="L11" t="n">
-        <v>11.74235215858612</v>
+        <v>1.47704305677124</v>
       </c>
       <c r="M11" t="n">
-        <v>10.1178781999034</v>
+        <v>0.111611394118446</v>
       </c>
       <c r="N11" t="n">
-        <v>0.221349768905149</v>
+        <v>0.4192818259704944</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03355570713330127</v>
+        <v>0.06437778605656024</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 72, 'max_depth': 18, 'min_samples_split': 21, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>

--- a/src/P07_af_all/T06_ml_auto_optuna_center/S02_combine_study.xlsx
+++ b/src/P07_af_all/T06_ml_auto_optuna_center/S02_combine_study.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,21 +518,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-1_TS-0_3</t>
+          <t>study_ElasticNet_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,57 +542,57 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 86, 'learning_rate': 0.030199846426600088, 'max_depth': 7, 'min_samples_split': 35, 'min_samples_leaf': 4, 'subsample': 0.959625878842969, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.044190371904866285, 'l1_ratio': 0.9805999409127691, 'fit_intercept': False, 'positive': False, 'max_iter': 1042, 'tol': 1.8145866571474627e-06, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.4939643526324446</v>
+        <v>-0.3480948042302333</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5081758509079205</v>
+        <v>0.6529956684855948</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07366948214164722</v>
+        <v>0.07618311774698205</v>
       </c>
       <c r="L2" t="n">
-        <v>1.523235940604162</v>
+        <v>1.545897515405067</v>
       </c>
       <c r="M2" t="n">
-        <v>0.464622818639274</v>
+        <v>0.5093268473456303</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4939643526324446</v>
+        <v>0.3480948042302333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02540044564009075</v>
+        <v>0.01849918393059611</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 86, 'learning_rate': 0.030199846426600088, 'max_depth': 7, 'min_samples_split': 35, 'min_samples_leaf': 4, 'subsample': 0.959625878842969, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.044190371904866285, 'l1_ratio': 0.9805999409127691, 'fit_intercept': False, 'positive': False, 'max_iter': 1042, 'tol': 1.8145866571474627e-06, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-2_TS-0_3</t>
+          <t>study_ElasticNet_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,57 +602,57 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'learning_rate': 0.08757876807720011, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 39, 'subsample': 0.8308173616905851, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.18804072618106046, 'l1_ratio': 0.31180364845009745, 'fit_intercept': False, 'positive': False, 'max_iter': 110, 'tol': 0.00010137409685024082, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.3875853202193662</v>
+        <v>-0.3154122887043851</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6022709977001474</v>
+        <v>0.6723777117973754</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09863252219499681</v>
+        <v>0.09622147550800374</v>
       </c>
       <c r="L3" t="n">
-        <v>1.996187725608667</v>
+        <v>1.90906401431919</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1407732099463513</v>
+        <v>0.1221977811391653</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3875853202193662</v>
+        <v>0.3154122887043851</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0474793484860021</v>
+        <v>0.03331414497485585</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'learning_rate': 0.08757876807720011, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 39, 'subsample': 0.8308173616905851, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.18804072618106046, 'l1_ratio': 0.31180364845009745, 'fit_intercept': False, 'positive': False, 'max_iter': 110, 'tol': 0.00010137409685024082, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-3_TS-0_3</t>
+          <t>study_ElasticNet_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,57 +662,57 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 68, 'learning_rate': 0.0806030352667165, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 22, 'subsample': 0.7670163466007812, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.07287953108150895, 'l1_ratio': 0.9714683297523481, 'fit_intercept': False, 'positive': False, 'max_iter': 2073, 'tol': 1.0513738442844388e-05, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.3819365245221545</v>
+        <v>-0.2889023180103379</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6004379819822994</v>
+        <v>0.7024756599698311</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1028095701627225</v>
+        <v>0.1809518888481836</v>
       </c>
       <c r="L4" t="n">
-        <v>1.597870673419334</v>
+        <v>1.572450064583219</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2837138896953019</v>
+        <v>0.2223319829387676</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3819365245221545</v>
+        <v>0.2889023180103379</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0833613291485573</v>
+        <v>0.09098668895703417</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'n_estimators': 68, 'learning_rate': 0.0806030352667165, 'max_depth': 4, 'min_samples_split': 82, 'min_samples_leaf': 22, 'subsample': 0.7670163466007812, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.07287953108150895, 'l1_ratio': 0.9714683297523481, 'fit_intercept': False, 'positive': False, 'max_iter': 2073, 'tol': 1.0513738442844388e-05, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-4_TS-0_3</t>
+          <t>study_ElasticNet_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,57 +722,57 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 147, 'learning_rate': 0.013214993175128866, 'max_depth': 6, 'min_samples_split': 8, 'min_samples_leaf': 21, 'subsample': 0.8103043755487271, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.0809852174980821, 'l1_ratio': 0.8535168408216003, 'fit_intercept': False, 'positive': False, 'max_iter': 151, 'tol': 3.722549616387451e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.4203703595477316</v>
+        <v>-0.3410874154184468</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5753466751204978</v>
+        <v>0.6511206484565968</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08728866109939493</v>
+        <v>0.06527779323102406</v>
       </c>
       <c r="L5" t="n">
-        <v>1.321063355542614</v>
+        <v>1.544033889813194</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1462539553262033</v>
+        <v>0.2063521190867229</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4203703595477316</v>
+        <v>0.3410874154184468</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05407552002068812</v>
+        <v>0.04241580095743992</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 147, 'learning_rate': 0.013214993175128866, 'max_depth': 6, 'min_samples_split': 8, 'min_samples_leaf': 21, 'subsample': 0.8103043755487271, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.0809852174980821, 'l1_ratio': 0.8535168408216003, 'fit_intercept': False, 'positive': False, 'max_iter': 151, 'tol': 3.722549616387451e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>study_GradientBoosting_RS-5_TS-0_3</t>
+          <t>study_ElasticNet_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,57 +782,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 126, 'learning_rate': 0.03978883004389167, 'max_depth': 5, 'min_samples_split': 32, 'min_samples_leaf': 28, 'subsample': 0.679394149181425, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.06158582290617506, 'l1_ratio': 0.7039455927533809, 'fit_intercept': False, 'positive': False, 'max_iter': 5251, 'tol': 1.248404206018017e-05, 'selection': 'cyclic', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.4013613474261404</v>
+        <v>-0.3552246332583271</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J6" t="n">
-        <v>0.594419755622062</v>
+        <v>0.6428247172832439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02640869870013782</v>
+        <v>0.02943531299866715</v>
       </c>
       <c r="L6" t="n">
-        <v>1.544095469284238</v>
+        <v>1.601718695523063</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1046757668005143</v>
+        <v>0.09752313426808119</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4013613474261404</v>
+        <v>0.3552246332583271</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05845385997116885</v>
+        <v>0.02798562294929613</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'n_estimators': 126, 'learning_rate': 0.03978883004389167, 'max_depth': 5, 'min_samples_split': 32, 'min_samples_leaf': 28, 'subsample': 0.679394149181425, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'alpha': 0.06158582290617506, 'l1_ratio': 0.7039455927533809, 'fit_intercept': False, 'positive': False, 'max_iter': 5251, 'tol': 1.248404206018017e-05, 'selection': 'cyclic', 'warm_start': True}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-1_TS-0_3</t>
+          <t>study_GradientBoosting_RS-1_TS-0_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,57 +842,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 54, 'max_depth': 51, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 69, 'learning_rate': 0.03538488388058883, 'max_depth': 8, 'min_samples_split': 39, 'min_samples_leaf': 3, 'subsample': 0.9731130569706461, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.500411731361186</v>
+        <v>-0.5010881409727367</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5020203036473746</v>
+        <v>0.5015529922025567</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07635333432501794</v>
+        <v>0.07765468737802184</v>
       </c>
       <c r="L7" t="n">
-        <v>1.429024613806958</v>
+        <v>1.498115234637955</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3821150414559057</v>
+        <v>0.4583672016273993</v>
       </c>
       <c r="N7" t="n">
-        <v>0.500411731361186</v>
+        <v>0.5010881409727367</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02838537596024571</v>
+        <v>0.02798297148802441</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 54, 'max_depth': 51, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 69, 'learning_rate': 0.03538488388058883, 'max_depth': 8, 'min_samples_split': 39, 'min_samples_leaf': 3, 'subsample': 0.9731130569706461, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-2_TS-0_3</t>
+          <t>study_GradientBoosting_RS-2_TS-0_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,57 +902,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 62, 'max_depth': 14, 'min_samples_split': 27, 'min_samples_leaf': 10, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 376, 'learning_rate': 0.022196735600455056, 'max_depth': 9, 'min_samples_split': 58, 'min_samples_leaf': 34, 'subsample': 0.9894802960232754, 'max_features': 0.5, 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.3945317084500783</v>
+        <v>-0.4135960371893496</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5911792251196999</v>
+        <v>0.5806978747207995</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06913849993328608</v>
+        <v>0.1395729718316919</v>
       </c>
       <c r="L8" t="n">
-        <v>2.125498831819181</v>
+        <v>1.911875090318403</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2399017483311659</v>
+        <v>0.215267527051761</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3945317084500783</v>
+        <v>0.4135960371893496</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04634850742556162</v>
+        <v>0.09148322237438512</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 62, 'max_depth': 14, 'min_samples_split': 27, 'min_samples_leaf': 10, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 376, 'learning_rate': 0.022196735600455056, 'max_depth': 9, 'min_samples_split': 58, 'min_samples_leaf': 34, 'subsample': 0.9894802960232754, 'max_features': 0.5, 'loss': 'absolute_error'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-3_TS-0_3</t>
+          <t>study_GradientBoosting_RS-3_TS-0_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,57 +962,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 52, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 72, 'learning_rate': 0.03778219806187029, 'max_depth': 8, 'min_samples_split': 41, 'min_samples_leaf': 19, 'subsample': 0.7123809126485139, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-0.3917136457511836</v>
+        <v>-0.4015912904211551</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5971065077323318</v>
+        <v>0.5833235919948887</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1329250948146542</v>
+        <v>0.09895898662457253</v>
       </c>
       <c r="L9" t="n">
-        <v>1.526465878932818</v>
+        <v>1.473337132044964</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1610203709048917</v>
+        <v>0.1672537924042214</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3917136457511836</v>
+        <v>0.4015912904211551</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07339691340410084</v>
+        <v>0.056619031411303</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 52, 'max_depth': 11, 'min_samples_split': 6, 'min_samples_leaf': 11, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 72, 'learning_rate': 0.03778219806187029, 'max_depth': 8, 'min_samples_split': 41, 'min_samples_leaf': 19, 'subsample': 0.7123809126485139, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-4_TS-0_3</t>
+          <t>study_GradientBoosting_RS-4_TS-0_3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,57 +1022,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 51, 'max_depth': 128, 'min_samples_split': 33, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 108, 'learning_rate': 0.01831953495369207, 'max_depth': 7, 'min_samples_split': 33, 'min_samples_leaf': 1, 'subsample': 0.701332921597848, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-0.4240462872691634</v>
+        <v>-0.4276753165458049</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5690364712555849</v>
+        <v>0.5688899122900749</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08916677398578182</v>
+        <v>0.0920449617231766</v>
       </c>
       <c r="L10" t="n">
-        <v>1.363914324128249</v>
+        <v>1.358211617188829</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2008173090558338</v>
+        <v>0.09556844517404479</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4240462872691634</v>
+        <v>0.4276753165458049</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0855763692057547</v>
+        <v>0.05410244087891409</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 51, 'max_depth': 128, 'min_samples_split': 33, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 108, 'learning_rate': 0.01831953495369207, 'max_depth': 7, 'min_samples_split': 33, 'min_samples_leaf': 1, 'subsample': 0.701332921597848, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>study_RandomForest_RS-5_TS-0_3</t>
+          <t>study_GradientBoosting_RS-5_TS-0_3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_20-35</t>
+          <t>2026-01-26_21-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,1236 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 18, 'min_samples_split': 21, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 127, 'learning_rate': 0.0274192044115878, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 21, 'subsample': 0.7712475212575121, 'max_features': 1.0, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-0.4192818259704944</v>
+        <v>-0.4230304054361426</v>
       </c>
       <c r="I11" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5764381569084712</v>
+        <v>0.5733094495041272</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03844931115234055</v>
+        <v>0.02158949585025828</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47704305677124</v>
+        <v>1.522474918260008</v>
       </c>
       <c r="M11" t="n">
-        <v>0.111611394118446</v>
+        <v>0.14783662280323</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4192818259704944</v>
+        <v>0.4230304054361426</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06437778605656024</v>
+        <v>0.05022200772106967</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 72, 'max_depth': 18, 'min_samples_split': 21, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 127, 'learning_rate': 0.0274192044115878, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 21, 'subsample': 0.7712475212575121, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 24, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.2731034663185287</v>
+      </c>
+      <c r="I12" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7287787209659973</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.09156227650440063</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.311246065810512</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3206650365491917</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2731034663185287</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.02228878662378455</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 24, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 57, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.218972328819593</v>
+      </c>
+      <c r="I13" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7674492300106478</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1102243057837489</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.724685841481599</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.15676625958766</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.218972328819593</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03317627850456416</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 57, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 43, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 32, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.2071040784823003</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7770138817307525</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1446575525853961</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.319672828749923</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1700899115650718</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2071040784823003</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.03900598687608278</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 43, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 32, 'p': 1, 'metric': 'manhattan'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 32, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 59, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.2355861902426185</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7633361612479033</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1278856481970657</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.229029324131558</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.004972737710209726</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2355861902426185</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.007338346075033573</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 32, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 59, 'p': 2, 'metric': 'minkowski'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>study_KNR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 37, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 14, 'p': 2, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.2466000705132951</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7515228823194743</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03232357473989463</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.22063143020577</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1077953871930223</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2466000705132951</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01737741159584638</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'n_neighbors': 37, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 14, 'p': 2, 'metric': 'euclidean'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 30, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5088836555318946</v>
+      </c>
+      <c r="I17" t="n">
+        <v>500</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4940932437742185</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.08123310526723722</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.402122158855372</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3915255584225327</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5088836555318946</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.03281999493057992</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 75, 'max_depth': 30, 'min_samples_split': 40, 'min_samples_leaf': 7, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'max_depth': 5, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4415363662546416</v>
+      </c>
+      <c r="I18" t="n">
+        <v>453</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5468978569695168</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.08448655454545932</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.992494547001042</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1615829179724262</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4415363662546416</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.05511906169831021</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 100, 'max_depth': 5, 'min_samples_split': 2, 'min_samples_leaf': 1, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 52, 'max_depth': 12, 'min_samples_split': 8, 'min_samples_leaf': 5, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.4116806962842055</v>
+      </c>
+      <c r="I19" t="n">
+        <v>450</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5737657469741709</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.111427223733032</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.571415067059538</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.148155483018196</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4116806962842055</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.07916268673228583</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 52, 'max_depth': 12, 'min_samples_split': 8, 'min_samples_leaf': 5, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 98, 'max_depth': 9, 'min_samples_split': 25, 'min_samples_leaf': 6, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.4452613427472106</v>
+      </c>
+      <c r="I20" t="n">
+        <v>450</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5493331497118246</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.07861929068349797</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.323847339533358</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.16968104730658</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4452613427472106</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.05963677670011698</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 98, 'max_depth': 9, 'min_samples_split': 25, 'min_samples_leaf': 6, 'max_features': 0.5, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>study_RandomForest_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 15, 'min_samples_split': 29, 'min_samples_leaf': 11, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4314294582810975</v>
+      </c>
+      <c r="I21" t="n">
+        <v>291</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5649698172168237</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.04104928659444761</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.497190343319761</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1301408790228362</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4314294582810975</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.05987546712604294</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 15, 'min_samples_split': 29, 'min_samples_leaf': 11, 'max_features': 1.0, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 1.6174541642252391, 'epsilon': 0.588259211821113, 'gamma_choice': 'auto', 'coef0': -0.6424304819713794, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.3422612796780697</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.654134073321691</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.02433109710195586</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.65138601431576</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5623803304082604</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3422612796780697</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.03771829362959851</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 1.6174541642252391, 'gamma': 'auto', 'epsilon': 0.588259211821113, 'coef0': -0.6424304819713794, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 85.95816436753923, 'epsilon': 5.895711542686053e-06, 'gamma_choice': 'float', 'gamma': 0.0001524562585342259, 'coef0': 0.9996288721708734, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.2745855705890968</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.713247418055914</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1094982665460763</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.187520025325026</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1346626785766579</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2745855705890968</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.04274638925267005</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 85.95816436753923, 'gamma': 0.0001524562585342259, 'epsilon': 5.895711542686053e-06, 'coef0': 0.9996288721708734, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.0028392547462043373, 'epsilon': 5.563351399522893e-05, 'gamma_choice': 'auto', 'coef0': -0.4526535779938737, 'shrinking': True}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2361400788051161</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7550667496529284</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1909511614361361</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.517672729061614</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1138637246374275</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2361400788051161</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.08421752924245156</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.0028392547462043373, 'gamma': 'auto', 'epsilon': 5.563351399522893e-05, 'coef0': -0.4526535779938737, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.003201755899451423, 'epsilon': 0.1832221026467302, 'gamma_choice': 'scale', 'coef0': -0.7488073337943844, 'shrinking': False}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.2832954738619972</v>
+      </c>
+      <c r="I25" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7094331636978864</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.08131969487603451</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.434092821538996</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1210415639034056</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2832954738619972</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.04682642021606391</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'kernel': 'linear', 'C': 0.003201755899451423, 'gamma': 'scale', 'epsilon': 0.1832221026467302, 'coef0': -0.7488073337943844, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>study_SVR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.14459178882728482, 'epsilon': 5.2598549688940606e-05, 'gamma_choice': 'auto', 'coef0': -0.2433382904420867, 'shrinking': True}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.3109113403499824</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6850717024360375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01333421829873669</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.420356959006404</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.08528793712893068</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3109113403499824</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0520619678226572</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'kernel': 'sigmoid', 'C': 0.14459178882728482, 'gamma': 'auto', 'epsilon': 5.2598549688940606e-05, 'coef0': -0.2433382904420867, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 288, 'max_depth': 6, 'learning_rate': 0.026652184932293047, 'subsample': 0.5337986995485995, 'colsample_bytree': 0.713032429442194, 'colsample_bylevel': 0.6644959118939964, 'gamma': 0.5099233533129534, 'min_child_weight': 0.005246266034157813, 'reg_alpha': 1.344467568083414e-05, 'reg_lambda': 0.0006284773736512346, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5035971895667065</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4967849029776952</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.05439182012505481</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.546462916821702</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5463652404640307</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5035971895667065</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01736151553301977</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 288, 'max_depth': 6, 'learning_rate': 0.026652184932293047, 'subsample': 0.5337986995485995, 'colsample_bytree': 0.713032429442194, 'colsample_bylevel': 0.6644959118939964, 'gamma': 0.5099233533129534, 'min_child_weight': 0.005246266034157813, 'reg_alpha': 1.344467568083414e-05, 'reg_lambda': 0.0006284773736512346, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 252, 'max_depth': 11, 'learning_rate': 0.008338602505903143, 'subsample': 0.9365500357600187, 'colsample_bytree': 0.7612821910113006, 'colsample_bylevel': 0.39472479605922156, 'gamma': 0.684115384001693, 'min_child_weight': 0.006570326321559624, 'reg_alpha': 1.8375359375224546e-07, 'reg_lambda': 0.0037256580529770075, 'booster': 'dart', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.4268087765204839</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5605531330930349</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.07799804194162979</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.036823914853829</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2323173014312694</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4268087765204839</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.05148393733242487</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 252, 'max_depth': 11, 'learning_rate': 0.008338602505903143, 'subsample': 0.9365500357600187, 'colsample_bytree': 0.7612821910113006, 'colsample_bylevel': 0.39472479605922156, 'gamma': 0.684115384001693, 'min_child_weight': 0.006570326321559624, 'reg_alpha': 1.8375359375224546e-07, 'reg_lambda': 0.0037256580529770075, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 136, 'max_depth': 5, 'learning_rate': 0.035716696530468744, 'subsample': 0.5765595481932843, 'colsample_bytree': 0.9593534370331375, 'colsample_bylevel': 0.9996197544293611, 'gamma': 1.7794380280135333, 'min_child_weight': 0.0025522458656432635, 'reg_alpha': 6.784072811640063e-08, 'reg_lambda': 5.654280048562547e-05, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.4058629376289006</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5788398786030009</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.09057735952109658</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.503747609447094</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.200480376934112</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4058629376289006</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.04376450868799243</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 136, 'max_depth': 5, 'learning_rate': 0.035716696530468744, 'subsample': 0.5765595481932843, 'colsample_bytree': 0.9593534370331375, 'colsample_bylevel': 0.9996197544293611, 'gamma': 1.7794380280135333, 'min_child_weight': 0.0025522458656432635, 'reg_alpha': 6.784072811640063e-08, 'reg_lambda': 5.654280048562547e-05, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 131, 'max_depth': 11, 'learning_rate': 0.020910407369806414, 'subsample': 0.9270963487913402, 'colsample_bytree': 0.8658682467112868, 'colsample_bylevel': 0.5291147012283227, 'gamma': 1.4948462047287032, 'min_child_weight': 0.0016055859726497182, 'reg_alpha': 0.045100712820613745, 'reg_lambda': 9.919561138557013e-05, 'booster': 'gbtree', 'tree_method': 'auto'}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.4372076793381578</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.556944269402785</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08187588785047639</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.366595044089871</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1377161920836524</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.4372076793381578</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.06781385108879145</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 131, 'max_depth': 11, 'learning_rate': 0.020910407369806414, 'subsample': 0.9270963487913402, 'colsample_bytree': 0.8658682467112868, 'colsample_bylevel': 0.5291147012283227, 'gamma': 1.4948462047287032, 'min_child_weight': 0.0016055859726497182, 'reg_alpha': 0.045100712820613745, 'reg_lambda': 9.919561138557013e-05, 'booster': 'gbtree', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-26_21-28</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 214, 'max_depth': 4, 'learning_rate': 0.011458030724323918, 'subsample': 0.9339055316664898, 'colsample_bytree': 0.8195481476033076, 'colsample_bylevel': 0.892071536698009, 'gamma': 0.04041885044087634, 'min_child_weight': 0.006694917861433871, 'reg_alpha': 6.861420106999594e-05, 'reg_lambda': 0.01795815750202099, 'booster': 'dart', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4258655896383374</v>
+      </c>
+      <c r="I31" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5690288933944335</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.04246234827971754</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.447173349824097</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1120513525468518</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.4258655896383374</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.07413256380157723</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 214, 'max_depth': 4, 'learning_rate': 0.011458030724323918, 'subsample': 0.9339055316664898, 'colsample_bytree': 0.8195481476033076, 'colsample_bylevel': 0.892071536698009, 'gamma': 0.04041885044087634, 'min_child_weight': 0.006694917861433871, 'reg_alpha': 6.861420106999594e-05, 'reg_lambda': 0.01795815750202099, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
